--- a/mappeNuove.xlsx
+++ b/mappeNuove.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\UninaCampus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
   <si>
     <t>Azione</t>
   </si>
@@ -432,9 +432,6 @@
     <t>solo.clickOnView(solo.getView(R.id.idspinner));</t>
   </si>
   <si>
-    <t>Spinner s = solo.getView(R.id.idspinner); solo.clickOnView(s.getChildAt(4))</t>
-  </si>
-  <si>
     <t>solo.clickLongOnView(solo.getView(R.id.idBottone));</t>
   </si>
   <si>
@@ -444,10 +441,14 @@
     <t>Spinner s = (Spinner)solo.getView(R.id.idSPinner); assertEquals("Ingegneria", s.getSelectedItem().toString());</t>
   </si>
   <si>
-    <t>ListView lv = solo.getView(R.id.listaSceltaCorsi); assertEquals("universita", lv.getSelectedItem().toString());</t>
-  </si>
-  <si>
-    <t>((TextView)solo.getView(R.id.idText)).setText("ciao!");</t>
+    <t>Spinner s = (Spinner)solo.getView(R.id.idspinner);
+        solo.clickOnView(s);
+        solo.scrollToTop(); // I put this in here so that it always keeps the list at start
+        // select the 3th item in the spinner
+        solo.clickOnView(solo.getView(TextView.class, 3));</t>
+  </si>
+  <si>
+    <t>solo.enterText((EditText) solo.getView(R.id.idtextView), "idinputText!");</t>
   </si>
 </sst>
 </file>
@@ -895,15 +896,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="2" max="2" width="62.140625" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="3" max="3" width="74.140625" customWidth="1"/>
     <col min="4" max="4" width="139.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -984,8 +985,8 @@
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
-        <v>84</v>
+      <c r="D6" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -1026,6 +1027,9 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1038,7 +1042,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1052,7 +1056,7 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1150,7 +1154,7 @@
         <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1164,7 +1168,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,6 +1195,9 @@
       <c r="C21" t="s">
         <v>44</v>
       </c>
+      <c r="D21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1202,6 +1209,9 @@
       <c r="C22" t="s">
         <v>46</v>
       </c>
+      <c r="D22" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1214,7 +1224,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/mappeNuove.xlsx
+++ b/mappeNuove.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\UninaCampus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikel_000\Desktop\ProgettoIS2\UninaCampus\UninaCampus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>Azione</t>
   </si>
@@ -273,28 +273,6 @@
         linearLayout.perform(click());</t>
   </si>
   <si>
-    <t xml:space="preserve">        DataInteraction appCompatTextView52 = onData(anything())
-                .inAdapterView(allOf(withId(R.id.idLista),
-                        childAtPosition(
-                                withClassName(is("android.widget.LinearLayout")),
-                                6)))
-                .atPosition(3);
-        appCompatTextView52.perform(longClick());
-                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ViewInteraction appCompatButton0 = onView(
-                allOf(withId(R.id.dialogoButton), withText("Apri Dialog"),
-                        childAtPosition(
-                                childAtPosition(
-                                        withClassName(is("android.support.constraint.ConstraintLayout")),
-                                        0),
-                                4),
-                        isDisplayed()));
-        appCompatButton0.perform(longClick());
-        </t>
-  </si>
-  <si>
     <t xml:space="preserve">        ListView lista= (ListView) activity.findViewById(R.id.idLista);
         assertTrue(lista.isLongClickable());
         AdapterView.OnItemLongClickListener iteml=lista.getOnItemLongClickListener();
@@ -449,6 +427,34 @@
   </si>
   <si>
     <t>solo.enterText((EditText) solo.getView(R.id.idtextView), "idinputText!");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ((Spinner) activity.findViewById(R.id.idspinner)).setSelection(1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         DataInteraction appCompatTextView52 = onData(anything())
+                .inAdapterView(allOf(withId(R.id.idLista),
+                        childAtPosition(
+                                withClassName(is("android.widget.LinearLayout")),
+                                6)))
+                .atPosition(3);
+        appCompatTextView52.perform(longClick());
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ViewInteraction appCompatButton0 = onView(
+                allOf(withId(R.id.dialogoButton), withText("Apri Dialog"),
+                        childAtPosition(
+                                childAtPosition(
+                                        withClassName(is("android.support.constraint.ConstraintLayout")),
+                                        0),
+                                4),
+                        isDisplayed()));
+        appCompatButton0.perform(longClick());
+                                       </t>
+  </si>
+  <si>
+    <t>solo.waitForActivity(Activity.class, 500); (verifica la nuova activity)  oppure solo.assertCurrentActivity("Nope", Activity.class);</t>
   </si>
 </sst>
 </file>
@@ -896,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,7 +967,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -985,11 +991,14 @@
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="195" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,32 +1040,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="234" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,7 +1073,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -1078,7 +1087,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1092,7 +1101,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1106,7 +1115,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1120,7 +1129,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -1148,13 +1157,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1176,13 +1185,13 @@
         <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1218,13 +1227,13 @@
         <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1241,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -1246,13 +1255,13 @@
         <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,7 +1275,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/mappeNuove.xlsx
+++ b/mappeNuove.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
   <si>
     <t>Azione</t>
   </si>
@@ -271,28 +271,6 @@
                                 0)))
                 .atPosition(3);
         linearLayout.perform(click());</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        DataInteraction appCompatTextView52 = onData(anything())
-                .inAdapterView(allOf(withId(R.id.idLista),
-                        childAtPosition(
-                                withClassName(is("android.widget.LinearLayout")),
-                                6)))
-                .atPosition(3);
-        appCompatTextView52.perform(longClick());
-                                       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ViewInteraction appCompatButton0 = onView(
-                allOf(withId(R.id.dialogoButton), withText("Apri Dialog"),
-                        childAtPosition(
-                                childAtPosition(
-                                        withClassName(is("android.support.constraint.ConstraintLayout")),
-                                        0),
-                                4),
-                        isDisplayed()));
-        appCompatButton0.perform(longClick());
-        </t>
   </si>
   <si>
     <t xml:space="preserve">        ListView lista= (ListView) activity.findViewById(R.id.idLista);
@@ -450,12 +428,95 @@
   <si>
     <t>solo.enterText((EditText) solo.getView(R.id.idtextView), "idinputText!");</t>
   </si>
+  <si>
+    <t xml:space="preserve">    ((Spinner) activity.findViewById(R.id.idspinner)).setSelection(1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         DataInteraction appCompatTextView52 = onData(anything())
+                .inAdapterView(allOf(withId(R.id.idLista),
+                        childAtPosition(
+                                withClassName(is("android.widget.LinearLayout")),
+                                6)))
+                .atPosition(3);
+        appCompatTextView52.perform(longClick());
+        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ViewInteraction appCompatButton0 = onView(
+                allOf(withId(R.id.dialogoButton), withText("Apri Dialog"),
+                        childAtPosition(
+                                childAtPosition(
+                                        withClassName(is("android.support.constraint.ConstraintLayout")),
+                                        0),
+                                4),
+                        isDisplayed()));
+        appCompatButton0.perform(longClick());
+                                       </t>
+  </si>
+  <si>
+    <t>solo.waitForActivity(Activity.class, 500); (verifica la nuova activity)  oppure solo.assertCurrentActivity("Nope", Activity.class);</t>
+  </si>
+  <si>
+    <t>Apertura menu laterale</t>
+  </si>
+  <si>
+    <t>ViewInteraction appCompatImageButton = onView(
+                allOf(withContentDescription("Open navigation drawer"),
+                        childAtPosition(
+                                allOf(withId(R.id.toolbar),
+                                        childAtPosition(
+                                                withClassName(is("android.widget.LinearLayout")),
+                                                0)),
+                                1),
+                        isDisplayed()));
+        appCompatImageButton.perform(click());</t>
+  </si>
+  <si>
+    <t>Click su item menu</t>
+  </si>
+  <si>
+    <t>ViewInteraction navigationMenuItemView = onView(
+                allOf(childAtPosition(
+                        allOf(withId(R.id.design_navigation_view),
+                                childAtPosition(
+                                        withId(R.id.nvView),
+                                        0)),
+                        1),
+                        isDisplayed()));
+        navigationMenuItemView.perform(click());</t>
+  </si>
+  <si>
+    <r>
+      <t>solo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.clickOnActionBarHomeButton();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>solo.clickOnMenuItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ItemMenu1");</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +544,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -504,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -512,6 +584,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -894,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -985,11 +1058,14 @@
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +1076,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="195" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,32 +1107,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="234" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,7 +1140,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -1078,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1092,7 +1168,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1106,7 +1182,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1120,7 +1196,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -1148,13 +1224,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1176,13 +1252,13 @@
         <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1218,13 +1294,13 @@
         <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1308,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -1246,13 +1322,13 @@
         <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,7 +1342,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1281,6 +1357,34 @@
       </c>
       <c r="D27" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/mappeNuove.xlsx
+++ b/mappeNuove.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikel_000\Desktop\ProgettoIS2\UninaCampus\UninaCampus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\UninaCampus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
   <si>
     <t>Azione</t>
   </si>
@@ -456,12 +456,67 @@
   <si>
     <t>solo.waitForActivity(Activity.class, 500); (verifica la nuova activity)  oppure solo.assertCurrentActivity("Nope", Activity.class);</t>
   </si>
+  <si>
+    <t>Apertura menu laterale</t>
+  </si>
+  <si>
+    <t>ViewInteraction appCompatImageButton = onView(
+                allOf(withContentDescription("Open navigation drawer"),
+                        childAtPosition(
+                                allOf(withId(R.id.toolbar),
+                                        childAtPosition(
+                                                withClassName(is("android.widget.LinearLayout")),
+                                                0)),
+                                1),
+                        isDisplayed()));
+        appCompatImageButton.perform(click());</t>
+  </si>
+  <si>
+    <t>Click su item menu</t>
+  </si>
+  <si>
+    <t>ViewInteraction navigationMenuItemView = onView(
+                allOf(childAtPosition(
+                        allOf(withId(R.id.design_navigation_view),
+                                childAtPosition(
+                                        withId(R.id.nvView),
+                                        0)),
+                        1),
+                        isDisplayed()));
+        navigationMenuItemView.perform(click());</t>
+  </si>
+  <si>
+    <r>
+      <t>solo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.clickOnActionBarHomeButton();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>solo.clickOnMenuItem(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ItemMenu1");</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +544,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -510,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -518,6 +584,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -900,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,6 +1359,34 @@
         <v>35</v>
       </c>
     </row>
+    <row r="28" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/mappeNuove.xlsx
+++ b/mappeNuove.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\UninaCampus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikel_000\Desktop\ProgettoIS2\UninaCampus\UninaCampus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>Azione</t>
   </si>
@@ -473,17 +473,6 @@
   </si>
   <si>
     <t>Click su item menu</t>
-  </si>
-  <si>
-    <t>ViewInteraction navigationMenuItemView = onView(
-                allOf(childAtPosition(
-                        allOf(withId(R.id.design_navigation_view),
-                                childAtPosition(
-                                        withId(R.id.nvView),
-                                        0)),
-                        1),
-                        isDisplayed()));
-        navigationMenuItemView.perform(click());</t>
   </si>
   <si>
     <r>
@@ -499,17 +488,24 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>solo.clickOnMenuItem(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>"ItemMenu1");</t>
-    </r>
+    <t xml:space="preserve"> openActionBarOverflowOrOptionsMenu(getInstrumentation().getTargetContext());
+        ViewInteraction textView2 = onView(
+                allOf(withId(android.R.id.title), withText("Change Settings"),
+                        childAtPosition(
+                                childAtPosition(
+    withClassName(is("com.android.internal.view.menu.ListMenuItemView")),
+                                        0),
+                                0),
+                        isDisplayed()));
+        textView2.perform(click());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        shadowOf(activity).clickMenuItem(R.id.settings);</t>
+  </si>
+  <si>
+    <t>solo.sendKey(solo.MENU);
+    // Click on Change Settings 
+  solo.clickInList(3, 0);</t>
   </si>
 </sst>
 </file>
@@ -576,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -585,6 +581,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -970,13 +969,13 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D29"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
     <col min="3" max="3" width="74.140625" customWidth="1"/>
     <col min="4" max="4" width="139.28515625" customWidth="1"/>
   </cols>
@@ -1370,21 +1369,21 @@
         <v>35</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="5" t="s">
         <v>96</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/mappeNuove.xlsx
+++ b/mappeNuove.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t>Azione</t>
   </si>
@@ -460,36 +460,13 @@
     <t>Apertura menu laterale</t>
   </si>
   <si>
-    <t>ViewInteraction appCompatImageButton = onView(
-                allOf(withContentDescription("Open navigation drawer"),
-                        childAtPosition(
-                                allOf(withId(R.id.toolbar),
-                                        childAtPosition(
-                                                withClassName(is("android.widget.LinearLayout")),
-                                                0)),
-                                1),
-                        isDisplayed()));
-        appCompatImageButton.perform(click());</t>
-  </si>
-  <si>
     <t>Click su item menu</t>
   </si>
   <si>
-    <r>
-      <t>solo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>.clickOnActionBarHomeButton();</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> openActionBarOverflowOrOptionsMenu(getInstrumentation().getTargetContext());
-        ViewInteraction textView2 = onView(
+    <t xml:space="preserve">        shadowOf(activity).clickMenuItem(R.id.settings);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ViewInteraction textView2 = onView(
                 allOf(withId(android.R.id.title), withText("Change Settings"),
                         childAtPosition(
                                 childAtPosition(
@@ -500,11 +477,17 @@
         textView2.perform(click());</t>
   </si>
   <si>
-    <t xml:space="preserve">        shadowOf(activity).clickMenuItem(R.id.settings);</t>
-  </si>
-  <si>
-    <t>solo.sendKey(solo.MENU);
-    // Click on Change Settings 
+    <t xml:space="preserve"> openActionBarOverflowOrOptionsMenu(getInstrumentation().getTargetContext());
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>solo.sendKey(solo.MENU);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // Click on Change Settings 
   solo.clickInList(3, 0);</t>
   </si>
 </sst>
@@ -512,7 +495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,11 +529,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -572,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -580,7 +558,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -968,15 +945,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="74.140625" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+    <col min="3" max="3" width="103.140625" customWidth="1"/>
     <col min="4" max="4" width="139.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1358,32 +1335,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="C29" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>97</v>
+      <c r="D29" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
